--- a/sse/综合数据分析（天）/证监会核准.xlsx
+++ b/sse/综合数据分析（天）/证监会核准.xlsx
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -428,23 +428,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>20150402</v>
+        <v>20150423</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>20150302</v>
+        <v>20150402</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>20150130</v>
+        <v>20150302</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -452,21 +452,56 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>20150105</v>
+        <v>20150130</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
+        <v>20150105</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>20141210</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>20141113</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>20141015</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>20140915</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:B10">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/sse/综合数据分析（天）/证监会核准.xlsx
+++ b/sse/综合数据分析（天）/证监会核准.xlsx
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -428,31 +428,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>20150423</v>
+        <v>20150508</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>20150402</v>
+        <v>20150423</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>20150302</v>
+        <v>20150402</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>20150130</v>
+        <v>20150302</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -460,31 +460,31 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>20150105</v>
+        <v>20150130</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>20141210</v>
+        <v>20150105</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>20141113</v>
+        <v>20141210</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>20141015</v>
+        <v>20141113</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -492,9 +492,17 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
+        <v>20141015</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>20140915</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>11</v>
       </c>
     </row>

--- a/sse/综合数据分析（天）/证监会核准.xlsx
+++ b/sse/综合数据分析（天）/证监会核准.xlsx
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -428,39 +428,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>20150508</v>
+        <v>20150522</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>20150423</v>
+        <v>20150508</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>20150402</v>
+        <v>20150423</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>20150302</v>
+        <v>20150402</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>20150130</v>
+        <v>20150302</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -468,31 +468,31 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>20150105</v>
+        <v>20150130</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>20141210</v>
+        <v>20150105</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>20141113</v>
+        <v>20141210</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>20141015</v>
+        <v>20141113</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -500,9 +500,17 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
+        <v>20141015</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>20140915</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>11</v>
       </c>
     </row>

--- a/sse/综合数据分析（天）/证监会核准.xlsx
+++ b/sse/综合数据分析（天）/证监会核准.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18240" windowHeight="4950"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="证监会核准" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,8 +25,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -35,6 +35,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -406,19 +407,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.375"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,91 +427,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2">
+        <v>20150609</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>20150522</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>20150508</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>20150423</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20150402</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>20150302</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>20150130</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8">
+        <v>20150130</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>20150105</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>20141210</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>20141113</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>20141015</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12">
+        <v>20141015</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>20140915</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>11</v>
       </c>
     </row>
